--- a/Fet_Stress_Test/kicad/FSB_BOM.xlsx
+++ b/Fet_Stress_Test/kicad/FSB_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Seth\Documents\GitHub\TestStand-Instrumentation-PCB\Fet_Stress_Test\kicad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2453F583-28D0-4378-A2CD-9A9CD58C06E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3690F4-825D-4974-A191-BC2EC65C336F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{FFB0F353-A69F-4780-9800-57CD2342D57A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{FFB0F353-A69F-4780-9800-57CD2342D57A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,22 +151,22 @@
     <t>JLC PCB</t>
   </si>
   <si>
-    <t>ordered from JLC with gerbers.zip in dir</t>
-  </si>
-  <si>
     <t>https://cart.jlcpcb.com/quote?orderType=1&amp;stencilLayer=2&amp;stencilWidth=100&amp;stencilLength=100&amp;stencilCounts=5</t>
   </si>
   <si>
     <t>Fet Stress Board</t>
   </si>
   <si>
-    <t>(cheaper long run, will be used for main board)</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/Chanzon-Resistor-Tolerance-Resistors-Certificated/dp/B08RYNWTT9/ref=sr_1_1_sspa?keywords=0603+resistor+kit&amp;qid=1659461169&amp;sr=8-1-spons&amp;psc=1&amp;smid=A14FP9XIRL6C1F&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWUJXT0RORlJUWjhVJmVuY3J5cHRlZElkPUEwNTc0NTU5WEI0RkU3SVo0M0dOJmVuY3J5cHRlZEFkSWQ9QTA3MTg0NTQzUDdGRElGUkJIMUZHJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
   </si>
   <si>
     <t>for testing stage under load</t>
+  </si>
+  <si>
+    <t>order from JLC with gerbers.zip in dir</t>
+  </si>
+  <si>
+    <t>(cheaper long run, will be used for main board as well)</t>
   </si>
 </sst>
 </file>
@@ -365,9 +365,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,6 +401,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1069,17 +1069,17 @@
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="33"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1154,33 +1154,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+    <row r="16" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>1</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>2</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>0</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[Unit Price]]</f>
         <v>0</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1305,36 +1305,36 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>6</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>1</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="24">
         <v>9</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="24">
         <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[Unit Price]]</f>
         <v>9</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="27" t="s">
-        <v>43</v>
+      <c r="I21" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1361,40 +1361,40 @@
         <v>15.38</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="28">
+      <c r="A23" s="27">
         <v>8</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="28">
         <v>1</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="29">
         <v>2</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <f>Table6[[#This Row],[Quantity]]*Table6[[#This Row],[Unit Price]]</f>
         <v>2</v>
       </c>
-      <c r="H23" s="31" t="s">
+      <c r="H23" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="31" t="s">
         <v>39</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
